--- a/Excel_Challenge_583 - Max for Cities & Birds Combination.xlsx
+++ b/Excel_Challenge_583 - Max for Cities & Birds Combination.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9169103-5F38-43B4-9E4A-64F41B05EB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A19552-B437-4FE5-8ACD-BDB52997D69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_city">EDA!$B$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t>Answer Expected</t>
   </si>
@@ -515,12 +541,39 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="876" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{360B95D4-ADBF-4CB1-B919-22BFC2D98399}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,4 +820,348 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F72E39A-C685-438C-8BCE-EB7D7226B571}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>87</v>
+      </c>
+      <c r="C3">
+        <v>66</v>
+      </c>
+      <c r="D3">
+        <v>95</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>68</v>
+      </c>
+      <c r="D4">
+        <v>77</v>
+      </c>
+      <c r="E4">
+        <v>91</v>
+      </c>
+      <c r="F4">
+        <v>94</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>83</v>
+      </c>
+      <c r="D5">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <v>70</v>
+      </c>
+      <c r="F5">
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>95</v>
+      </c>
+      <c r="E6">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>96</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>74</v>
+      </c>
+      <c r="C7">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>76</v>
+      </c>
+      <c r="E7">
+        <v>47</v>
+      </c>
+      <c r="F7">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>91</v>
+      </c>
+      <c r="D8">
+        <v>62</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>85</v>
+      </c>
+      <c r="C9">
+        <v>68</v>
+      </c>
+      <c r="D9">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>54</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>94</v>
+      </c>
+      <c r="E10">
+        <v>36</v>
+      </c>
+      <c r="F10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" t="str" cm="1">
+        <f t="array" ref="B13:B17">TRANSPOSE(_city)</f>
+        <v>New York</v>
+      </c>
+      <c r="C13" cm="1">
+        <f t="array" ref="C13:C17">TRANSPOSE(_xlfn.BYCOL(B3:F10,_xleta.MAX))</f>
+        <v>87</v>
+      </c>
+      <c r="D13" t="str" cm="1">
+        <f t="array" ref="D13">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.SORT(_xlfn._xlws.FILTER($A$3:$A$10,INDEX(B1:F8,,_xlfn.XMATCH(B13,_city))=C13)))</f>
+        <v>Eagle</v>
+      </c>
+      <c r="H13" t="str" cm="1">
+        <f t="array" ref="H13:I17">_xlfn.SORTBY(_xlfn.HSTACK(_xlfn.ANCHORARRAY(B13),D13:D17),MATCH(_xlfn.ANCHORARRAY(B13),H3:H7,0))</f>
+        <v>Chicago</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Dove, Hen</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="C14">
+        <v>91</v>
+      </c>
+      <c r="D14" t="str" cm="1">
+        <f t="array" ref="D14">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.SORT(_xlfn._xlws.FILTER($A$3:$A$10,INDEX(B2:F9,,_xlfn.XMATCH(B14,_city))=C14)))</f>
+        <v>Stork</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Houston</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Dove</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="C15">
+        <v>95</v>
+      </c>
+      <c r="D15" t="str" cm="1">
+        <f t="array" ref="D15">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.SORT(_xlfn._xlws.FILTER($A$3:$A$10,INDEX(B3:F10,,_xlfn.XMATCH(B15,_city))=C15)))</f>
+        <v>Dove, Hen</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Stork</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" t="str">
+        <v>Houston</v>
+      </c>
+      <c r="C16">
+        <v>91</v>
+      </c>
+      <c r="D16" t="str" cm="1">
+        <f t="array" ref="D16">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.SORT(_xlfn._xlws.FILTER($A$3:$A$10,INDEX(B4:F11,,_xlfn.XMATCH(B16,_city))=C16)))</f>
+        <v>Dove</v>
+      </c>
+      <c r="H16" t="str">
+        <v>New York</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Eagle</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" t="str">
+        <v>Philadelphia</v>
+      </c>
+      <c r="C17">
+        <v>99</v>
+      </c>
+      <c r="D17" t="str" cm="1">
+        <f t="array" ref="D17">_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.SORT(_xlfn._xlws.FILTER($A$3:$A$10,INDEX(B5:F12,,_xlfn.XMATCH(B17,_city))=C17)))</f>
+        <v>Dove, Parrot, Peacock</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Philadelphia</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Dove, Parrot, Peacock</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>